--- a/Group.xlsx
+++ b/Group.xlsx
@@ -1681,7 +1681,7 @@
             <a:rPr lang="en-GB" altLang="en-US" sz="2000">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>“NT Service”</a:t>
+            <a:t>“Android Service”</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" altLang="en-US" sz="2000"/>
         </a:p>

--- a/Group.xlsx
+++ b/Group.xlsx
@@ -97,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -125,9 +125,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,31 +155,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +170,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,32 +192,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,8 +223,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,15 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,31 +284,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,151 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,16 +494,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +519,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +567,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -557,53 +590,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,149 +613,140 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="135" wrapText="1"/>
     </xf>
@@ -763,12 +754,6 @@
       <alignment vertical="center" textRotation="135"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2157,8 +2142,14 @@
             <a:rPr lang="en-GB" altLang="en-US" sz="2000">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>“NT Service”</a:t>
+            <a:t>“Serial Comm Service”</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="2000">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-GB" altLang="en-US" sz="2000"/>
         </a:p>
         <a:p>
@@ -2167,6 +2158,48 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>290195</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1189355</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15670530" y="8051800"/>
+          <a:ext cx="3095625" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2432,8 +2465,8 @@
   <sheetPr/>
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2465,258 +2498,258 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" ht="135" customHeight="1" spans="4:25">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="6"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
